--- a/data/trans_dic/POLIPATOLOGIA_DISC-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_DISC-Habitat-trans_dic.xlsx
@@ -729,17 +729,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 12,65</t>
+          <t>3,68; 12,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,19; 22,51</t>
+          <t>9,14; 22,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,04; 30,63</t>
+          <t>13,69; 29,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,66; 33,71</t>
+          <t>16,52; 33,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,69; 30,77</t>
+          <t>15,26; 31,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,23; 31,44</t>
+          <t>20,42; 32,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,21; 20,61</t>
+          <t>11,39; 22,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,41; 23,87</t>
+          <t>13,69; 23,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,21; 28,66</t>
+          <t>19,29; 28,55</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,44; 15,96</t>
+          <t>10,24; 16,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 10,91</t>
+          <t>5,99; 10,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,89; 18,89</t>
+          <t>12,77; 18,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,34; 27,73</t>
+          <t>20,71; 28,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,45; 27,63</t>
+          <t>20,22; 27,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,81; 26,79</t>
+          <t>20,02; 26,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,41; 21,2</t>
+          <t>16,37; 21,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,94; 18,33</t>
+          <t>13,7; 18,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,62; 21,98</t>
+          <t>17,39; 21,85</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,37; 14,97</t>
+          <t>10,4; 14,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,22; 12,12</t>
+          <t>8,09; 11,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,55; 11,7</t>
+          <t>7,8; 11,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,72; 25,43</t>
+          <t>19,81; 25,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,8; 21,91</t>
+          <t>16,71; 21,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,53; 25,91</t>
+          <t>21,58; 25,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,94; 19,32</t>
+          <t>15,79; 19,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,91; 16,33</t>
+          <t>13,15; 16,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,8; 18,25</t>
+          <t>14,98; 18,24</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,37; 14,58</t>
+          <t>9,31; 14,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,08; 11,54</t>
+          <t>7,17; 11,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,33; 14,34</t>
+          <t>9,39; 14,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,83; 21,69</t>
+          <t>15,77; 21,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,48; 21,31</t>
+          <t>15,27; 21,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,25; 22,37</t>
+          <t>12,43; 22,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,44; 17,36</t>
+          <t>13,23; 17,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,12; 15,8</t>
+          <t>12,17; 15,83</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,13; 17,67</t>
+          <t>12,44; 17,76</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,13; 13,35</t>
+          <t>9,18; 13,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,16; 10,86</t>
+          <t>7,24; 10,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,11; 15,33</t>
+          <t>10,95; 15,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,93; 24,16</t>
+          <t>18,98; 24,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,7; 20,84</t>
+          <t>15,79; 20,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,17; 27,16</t>
+          <t>21,89; 26,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,89; 18,31</t>
+          <t>14,96; 18,39</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,37; 15,42</t>
+          <t>12,34; 15,35</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,49; 20,88</t>
+          <t>17,45; 20,88</t>
         </is>
       </c>
     </row>
@@ -1429,17 +1429,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,68; 13,01</t>
+          <t>10,75; 13,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,27; 10,28</t>
+          <t>8,39; 10,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,21; 13,55</t>
+          <t>11,17; 13,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,3; 22,96</t>
+          <t>20,38; 23,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,17; 21,11</t>
+          <t>18,0; 20,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,69; 24,24</t>
+          <t>20,53; 24,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,03; 17,92</t>
+          <t>15,86; 17,8</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>13,67; 15,4</t>
+          <t>13,68; 15,4</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,78; 18,89</t>
+          <t>16,74; 18,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/POLIPATOLOGIA_DISC-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_DISC-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 12,25</t>
+          <t>3,22; 12,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,14; 22,15</t>
+          <t>8,14; 21,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,52; 33,64</t>
+          <t>16,48; 33,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,26; 31,05</t>
+          <t>14,83; 30,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,39; 22,09</t>
+          <t>11,01; 20,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,69; 23,55</t>
+          <t>13,52; 24,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,24; 16,47</t>
+          <t>10,35; 15,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,99; 10,74</t>
+          <t>6,04; 10,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,71; 28,05</t>
+          <t>20,78; 27,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,22; 27,88</t>
+          <t>20,66; 27,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,37; 21,06</t>
+          <t>16,25; 20,82</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,7; 18,25</t>
+          <t>13,98; 18,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,4; 14,62</t>
+          <t>10,31; 14,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,09; 11,92</t>
+          <t>8,21; 11,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,81; 25,19</t>
+          <t>19,71; 25,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,71; 21,89</t>
+          <t>16,73; 21,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,79; 19,24</t>
+          <t>15,8; 19,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,15; 16,26</t>
+          <t>13,06; 16,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,31; 14,31</t>
+          <t>9,32; 14,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 11,25</t>
+          <t>7,2; 11,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,77; 21,47</t>
+          <t>15,64; 21,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,27; 21,21</t>
+          <t>15,39; 21,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,23; 17,06</t>
+          <t>13,36; 17,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,17; 15,83</t>
+          <t>12,15; 15,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,18; 13,22</t>
+          <t>9,08; 13,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,24; 10,72</t>
+          <t>6,97; 10,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,98; 24,07</t>
+          <t>19,14; 24,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,79; 20,88</t>
+          <t>15,57; 20,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,96; 18,39</t>
+          <t>14,81; 18,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,34; 15,35</t>
+          <t>12,13; 15,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,75; 13,15</t>
+          <t>10,69; 13,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,39; 10,4</t>
+          <t>8,37; 10,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,38; 23,22</t>
+          <t>20,35; 23,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,0; 20,88</t>
+          <t>18,27; 21,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15,86; 17,8</t>
+          <t>15,91; 17,75</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>13,68; 15,4</t>
+          <t>13,7; 15,39</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/POLIPATOLOGIA_DISC-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_DISC-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,17 +729,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 12,36</t>
+          <t>3,57; 12,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,14; 21,76</t>
+          <t>9,19; 22,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,69; 29,56</t>
+          <t>14,04; 30,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,48; 33,75</t>
+          <t>16,66; 33,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,83; 30,93</t>
+          <t>14,69; 30,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,42; 32,66</t>
+          <t>20,23; 31,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,01; 20,72</t>
+          <t>11,21; 20,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,52; 24,29</t>
+          <t>13,41; 23,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,29; 28,55</t>
+          <t>19,21; 28,66</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,35; 15,95</t>
+          <t>10,44; 15,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,04; 10,38</t>
+          <t>6,1; 10,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,77; 18,6</t>
+          <t>12,89; 18,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,78; 27,73</t>
+          <t>20,34; 27,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,66; 27,52</t>
+          <t>20,45; 27,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,02; 26,77</t>
+          <t>19,81; 26,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,25; 20,82</t>
+          <t>16,41; 21,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,98; 18,38</t>
+          <t>13,94; 18,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,39; 21,85</t>
+          <t>17,62; 21,98</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,31; 14,76</t>
+          <t>10,37; 14,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,21; 11,89</t>
+          <t>8,22; 12,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,8; 11,83</t>
+          <t>7,55; 11,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,71; 25,13</t>
+          <t>19,72; 25,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,73; 21,88</t>
+          <t>16,8; 21,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,58; 25,89</t>
+          <t>21,53; 25,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,8; 19,24</t>
+          <t>15,94; 19,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,06; 16,22</t>
+          <t>12,91; 16,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,98; 18,24</t>
+          <t>14,8; 18,25</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,32; 14,57</t>
+          <t>9,37; 14,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 11,4</t>
+          <t>7,08; 11,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,39; 14,22</t>
+          <t>9,33; 14,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,64; 21,32</t>
+          <t>15,83; 21,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,39; 21,21</t>
+          <t>15,48; 21,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,43; 22,56</t>
+          <t>12,25; 22,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,36; 17,29</t>
+          <t>13,44; 17,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,15; 15,86</t>
+          <t>12,12; 15,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,44; 17,76</t>
+          <t>12,13; 17,67</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,08; 13,21</t>
+          <t>9,13; 13,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,97; 10,8</t>
+          <t>7,16; 10,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,95; 15,16</t>
+          <t>11,11; 15,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,14; 24,07</t>
+          <t>18,93; 24,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,57; 20,79</t>
+          <t>15,7; 20,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,89; 26,91</t>
+          <t>22,17; 27,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,81; 18,28</t>
+          <t>14,89; 18,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,13; 15,52</t>
+          <t>12,37; 15,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,45; 20,88</t>
+          <t>17,49; 20,88</t>
         </is>
       </c>
     </row>
@@ -1429,17 +1429,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,69; 13,07</t>
+          <t>10,68; 13,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,37; 10,35</t>
+          <t>8,27; 10,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,17; 13,55</t>
+          <t>11,21; 13,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,35; 23,11</t>
+          <t>20,3; 22,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,27; 21,1</t>
+          <t>18,17; 21,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,53; 24,21</t>
+          <t>20,69; 24,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15,91; 17,75</t>
+          <t>16,03; 17,92</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>13,7; 15,39</t>
+          <t>13,67; 15,4</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16,74; 18,79</t>
+          <t>16,78; 18,89</t>
         </is>
       </c>
     </row>
